--- a/2.02_Woechnerinnen-_und_Neugeborenenpflege.xlsx
+++ b/2.02_Woechnerinnen-_und_Neugeborenenpflege.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RuellMag\Documents\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CEFE10-53C5-48CA-B2B3-5EF35373A795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3024C8-C777-494B-870A-7D67CA2BFFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7B11F82F-C939-3448-B023-7F0894FA6D65}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{7B11F82F-C939-3448-B023-7F0894FA6D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Paulina" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>keine Angabe</t>
   </si>
 </sst>
 </file>
@@ -708,7 +711,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,7 +1243,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>70</v>

--- a/2.02_Woechnerinnen-_und_Neugeborenenpflege.xlsx
+++ b/2.02_Woechnerinnen-_und_Neugeborenenpflege.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RuellMag\Documents\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3024C8-C777-494B-870A-7D67CA2BFFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1763DD3-BC41-4D37-AA80-539C02763F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{7B11F82F-C939-3448-B023-7F0894FA6D65}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7B11F82F-C939-3448-B023-7F0894FA6D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Paulina" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -252,9 +252,6 @@
   </si>
   <si>
     <t>/</t>
-  </si>
-  <si>
-    <t>keine Angabe</t>
   </si>
 </sst>
 </file>
@@ -711,7 +708,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1243,7 +1240,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>70</v>
